--- a/Adv_Selenium/excel/EmptyBook.xlsx
+++ b/Adv_Selenium/excel/EmptyBook.xlsx
@@ -34,12 +34,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="48">
   <si>
     <t>Pranabendu</t>
   </si>
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NEW CAR</t>
+  </si>
+  <si>
+    <t>NEWS &amp; REVIEWS</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>MG Comet EV</t>
+  </si>
+  <si>
+    <t>Maruti Baleno</t>
+  </si>
+  <si>
+    <t>Tata Altroz</t>
+  </si>
+  <si>
+    <t>Hatchback Cars</t>
+  </si>
+  <si>
+    <t>Maruti Ertiga</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne Coupe</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne</t>
+  </si>
+  <si>
+    <t>Latest Cars</t>
+  </si>
+  <si>
+    <t>Lamborghini Revuelto</t>
+  </si>
+  <si>
+    <t>Nissan X-Trail</t>
+  </si>
+  <si>
+    <t>Toyota Innova Crysta 2.4 G 7 STR</t>
+  </si>
+  <si>
+    <t>Mahindra Bolero Neo Plus</t>
+  </si>
+  <si>
+    <t>Upcoming Cars</t>
+  </si>
+  <si>
+    <t>Tata Tiago EV</t>
+  </si>
+  <si>
+    <t>Kia EV6</t>
+  </si>
+  <si>
+    <t>Tata Tigor EV</t>
+  </si>
+  <si>
+    <t>Electric Cars</t>
+  </si>
+  <si>
+    <t>Maruti</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>View All Brands</t>
+  </si>
+  <si>
+    <t>Tata Altroz CNG Launch Soon, 5 Things To Know</t>
+  </si>
+  <si>
+    <t>Citroen C3 Aircross Has Been Unveiled In India</t>
+  </si>
+  <si>
+    <t>MG Comet EV Launched In India, Starts At Rs 7.98 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Fronx Launched, Starts At Rs 7.46 Lakh</t>
+  </si>
+  <si>
+    <t>Car News That Mattered This Week (April 17-21): New Unvelings, Launches And More</t>
+  </si>
+  <si>
+    <t>View all Car Visual Stories</t>
+  </si>
+  <si>
+    <t>Hyundai Creta vs Kia Seltos</t>
+  </si>
+  <si>
+    <t>Tata Nexon vs Tata Punch</t>
+  </si>
+  <si>
+    <t>Volkswagen Taigun vs Skoda Kushaq</t>
+  </si>
+  <si>
+    <t>Car Comparisons</t>
+  </si>
+  <si>
+    <t>Debunking The Myths And Methodology Around Modern Engine Bre...</t>
+  </si>
+  <si>
+    <t>These Are The 6 Cars Expected To Launch In May 2023</t>
+  </si>
+  <si>
+    <t>Citroen C3 Aircross vs Compact SUV Rivals: Which Is The Bigg...</t>
+  </si>
+  <si>
+    <t>Car News That Mattered This Week (April 24-28): New Launches...</t>
+  </si>
+  <si>
+    <t>Latest News</t>
+  </si>
+  <si>
+    <t>2023 Tata Safari Review: Are These Changes Enough?</t>
+  </si>
+  <si>
+    <t>Expert Reviews</t>
   </si>
 </sst>
 </file>
@@ -392,23 +530,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31C5C5A-EE16-464A-9626-375C4CE76721}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.36328125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="11.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
